--- a/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7790150781103304</v>
+        <v>0.7790150781103302</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7449626778754556</v>
+        <v>0.7449626778754553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7628102284983382</v>
+        <v>0.7628102284983385</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7043886229021958</v>
+        <v>0.7021276956370266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6821239237726225</v>
+        <v>0.6758045017319896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.717664070905727</v>
+        <v>0.7106505228279322</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8392651990452789</v>
+        <v>0.8411742051433422</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8070904799752548</v>
+        <v>0.8125869475867279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8123122669427802</v>
+        <v>0.8081424358759477</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7248469111231217</v>
+        <v>0.7248469111231218</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6898708769507068</v>
+        <v>0.6898708769507067</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7071130922186833</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6722511552787548</v>
+        <v>0.6731917218570005</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6434807437226538</v>
+        <v>0.6418110994637224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6705325790141681</v>
+        <v>0.6670137704619691</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7751369961344354</v>
+        <v>0.7801633415136571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7352317231193084</v>
+        <v>0.7385288845902762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7414302488739819</v>
+        <v>0.738893737262545</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7049027329166836</v>
+        <v>0.7049027329166835</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6217096187102206</v>
+        <v>0.6217096187102205</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6632836127935499</v>
+        <v>0.6632836127935501</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6652847116762366</v>
+        <v>0.6646803180821004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5856822711550169</v>
+        <v>0.5899773400597936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6372699993916932</v>
+        <v>0.6406434797795123</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7471486153534488</v>
+        <v>0.7441424057801314</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6522782225774936</v>
+        <v>0.6564818374384491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6885409068395805</v>
+        <v>0.6921867404596668</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.6914644331483221</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6394209418607139</v>
+        <v>0.6394209418607141</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6645331588347506</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.646590359139959</v>
+        <v>0.6522255750619572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6085109571051497</v>
+        <v>0.6104613353378779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6444715683817634</v>
+        <v>0.6393542589914677</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7264226756982834</v>
+        <v>0.7270224295708354</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6659400113115005</v>
+        <v>0.6663925986714102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6900500414670692</v>
+        <v>0.6880057049633687</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6978501183911611</v>
+        <v>0.6978501183911608</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.697002613124972</v>
+        <v>0.6970026131249722</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6974305400586004</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6631632962178996</v>
+        <v>0.6602217716994915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6695580680836534</v>
+        <v>0.6650344159118713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6726675108315027</v>
+        <v>0.6745434937400236</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7310718315193727</v>
+        <v>0.7328765255772095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7249800379201015</v>
+        <v>0.7245054548482359</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7190100803697161</v>
+        <v>0.7220799786141219</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.6866908266531282</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7077483872617818</v>
+        <v>0.7077483872617819</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.6976160050845832</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6435341311574977</v>
+        <v>0.6448354598391953</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6738099910644679</v>
+        <v>0.6762506254665589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6717012161170574</v>
+        <v>0.6712265977420396</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7265654818189028</v>
+        <v>0.726040239369568</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7402267213941167</v>
+        <v>0.7387825581846379</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7252365649614614</v>
+        <v>0.722562970098844</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6990160538052504</v>
+        <v>0.6990160538052502</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6578396783063682</v>
+        <v>0.6578396783063681</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6749850113251309</v>
+        <v>0.674985011325131</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6515922476346829</v>
+        <v>0.6475588292165672</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.622376909113838</v>
+        <v>0.6190807746931321</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.644315693986219</v>
+        <v>0.6425948270272229</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7496536127202079</v>
+        <v>0.7398176058275617</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.692462315263224</v>
+        <v>0.6939003075495286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7035142101767546</v>
+        <v>0.7007414133117076</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.7092563107716615</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.6727549594325423</v>
+        <v>0.6727549594325424</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.6905879739813898</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6921934337508138</v>
+        <v>0.6925812694729263</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6585581251281744</v>
+        <v>0.6584220275840509</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6792030433634652</v>
+        <v>0.6791291982415104</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.726283416402319</v>
+        <v>0.7262851944340722</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6863909456596489</v>
+        <v>0.6864962030105668</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7015946546201748</v>
+        <v>0.7013408694940335</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>245681</v>
+        <v>244892</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>216018</v>
+        <v>214016</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>477584</v>
+        <v>472917</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>292724</v>
+        <v>293390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>255593</v>
+        <v>257333</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>540569</v>
+        <v>537795</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>297003</v>
+        <v>297419</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>292398</v>
+        <v>291639</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>600934</v>
+        <v>597780</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>342459</v>
+        <v>344679</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>334089</v>
+        <v>335588</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>664473</v>
+        <v>662200</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>386455</v>
+        <v>386104</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>340584</v>
+        <v>343082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>740765</v>
+        <v>744687</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>434009</v>
+        <v>432263</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>379311</v>
+        <v>381755</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>800363</v>
+        <v>804601</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>411062</v>
+        <v>414645</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>414876</v>
+        <v>416206</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>849109</v>
+        <v>842366</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>461814</v>
+        <v>462196</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>454031</v>
+        <v>454339</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>909160</v>
+        <v>906466</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>374350</v>
+        <v>372689</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>370586</v>
+        <v>368082</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>752021</v>
+        <v>754119</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>412683</v>
+        <v>413702</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>401261</v>
+        <v>400998</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>803831</v>
+        <v>807263</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>235607</v>
+        <v>236084</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>265994</v>
+        <v>266957</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>511082</v>
+        <v>510721</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>266007</v>
+        <v>265814</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>292213</v>
+        <v>291643</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>551816</v>
+        <v>549782</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>170448</v>
+        <v>169393</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>228190</v>
+        <v>226982</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>404778</v>
+        <v>403697</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>196100</v>
+        <v>193527</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>253886</v>
+        <v>254414</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>441969</v>
+        <v>440227</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2214609</v>
+        <v>2215850</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2205691</v>
+        <v>2205235</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4447884</v>
+        <v>4447400</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2323677</v>
+        <v>2323683</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2298911</v>
+        <v>2299263</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4594520</v>
+        <v>4592858</v>
       </c>
     </row>
     <row r="36">
